--- a/model_tracker.xlsx
+++ b/model_tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\denni\OneDrive\Documents\My Experiments\DL with Keras\Best Trials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27DA54D6-787D-4C4B-9E11-D7F2733D56A6}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{475B2DB6-017D-4BFA-A9BA-10DAC1D466A0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="10560" xr2:uid="{763C4782-9D93-4BC2-970C-22599B2A6D40}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="40">
   <si>
     <t>model ID</t>
   </si>
@@ -33,9 +33,6 @@
     <t>0001</t>
   </si>
   <si>
-    <t>layers</t>
-  </si>
-  <si>
     <t>hidden layers</t>
   </si>
   <si>
@@ -120,13 +117,34 @@
     <t>Better or Worse</t>
   </si>
   <si>
-    <t>Best</t>
-  </si>
-  <si>
     <t>Worse</t>
   </si>
   <si>
     <t>Worst</t>
+  </si>
+  <si>
+    <t>Better</t>
+  </si>
+  <si>
+    <t>Best Acc</t>
+  </si>
+  <si>
+    <t>Beter</t>
+  </si>
+  <si>
+    <t>0015</t>
+  </si>
+  <si>
+    <t>0016</t>
+  </si>
+  <si>
+    <t>0017</t>
+  </si>
+  <si>
+    <t>0018</t>
+  </si>
+  <si>
+    <t>BEST</t>
   </si>
 </sst>
 </file>
@@ -201,12 +219,13 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -524,30 +543,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB20724F-0FFA-4972-8A61-D28BB6CE75DD}">
-  <dimension ref="A1:O15"/>
+  <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="8.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.54296875" customWidth="1"/>
-    <col min="11" max="12" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.90625" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.54296875" customWidth="1"/>
+    <col min="10" max="11" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -555,392 +573,820 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
-        <v>13</v>
-      </c>
       <c r="H1" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="I1" t="s">
         <v>28</v>
       </c>
       <c r="J1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" t="s">
         <v>29</v>
       </c>
-      <c r="K1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" t="s">
-        <v>8</v>
-      </c>
-      <c r="N1" t="s">
-        <v>10</v>
-      </c>
-      <c r="O1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>350</v>
       </c>
       <c r="D2">
         <v>350</v>
       </c>
-      <c r="E2">
-        <v>350</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2">
+        <v>1E-4</v>
+      </c>
+      <c r="G2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2">
+        <v>0.3</v>
+      </c>
+      <c r="I2">
+        <v>2</v>
+      </c>
+      <c r="J2" s="3">
+        <v>0.948888888888888</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0.81958762886597902</v>
+      </c>
+      <c r="L2" s="3">
+        <v>0.17160943962633601</v>
+      </c>
+      <c r="M2" s="3">
+        <v>0.39478751740504697</v>
+      </c>
+      <c r="N2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G2">
-        <v>1E-4</v>
-      </c>
-      <c r="H2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2">
-        <v>0.3</v>
-      </c>
-      <c r="J2">
-        <v>2</v>
-      </c>
-      <c r="K2" s="4">
-        <v>0.948888888888888</v>
-      </c>
-      <c r="L2" s="2">
-        <v>0.81958762886597902</v>
-      </c>
-      <c r="M2" s="3">
-        <v>0.17160943962633601</v>
-      </c>
-      <c r="N2" s="2">
-        <v>0.39478751740504697</v>
-      </c>
-      <c r="O2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="B3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>360</v>
       </c>
       <c r="D3">
         <v>360</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3">
+        <v>1E-4</v>
+      </c>
+      <c r="G3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3">
+        <v>0.3</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3" s="3">
+        <v>0.95111111111111102</v>
+      </c>
+      <c r="K3" s="3">
+        <v>0.78350515463917503</v>
+      </c>
+      <c r="L3" s="3">
+        <v>0.17332632588015601</v>
+      </c>
+      <c r="M3" s="3">
+        <v>0.43344363201524699</v>
+      </c>
+      <c r="N3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
         <v>360</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3">
-        <v>0.3</v>
-      </c>
-      <c r="J3">
-        <v>2</v>
-      </c>
-      <c r="K3" s="2">
-        <v>0.95111111111111102</v>
-      </c>
-      <c r="L3" s="4">
-        <v>0.78350515463917503</v>
-      </c>
-      <c r="M3" s="4">
-        <v>0.17332632588015601</v>
-      </c>
-      <c r="N3" s="4">
-        <v>0.43344363201524699</v>
-      </c>
-      <c r="O3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4">
-        <v>5</v>
-      </c>
-      <c r="C4">
-        <v>4</v>
       </c>
       <c r="D4">
         <v>360</v>
       </c>
-      <c r="E4">
-        <v>360</v>
-      </c>
-      <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" t="s">
-        <v>6</v>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4">
+        <v>1E-4</v>
+      </c>
+      <c r="G4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4">
+        <v>0.3</v>
       </c>
       <c r="I4">
-        <v>0.3</v>
-      </c>
-      <c r="J4">
-        <v>2</v>
+        <v>2</v>
+      </c>
+      <c r="J4" s="3">
+        <v>0.95111111111111102</v>
       </c>
       <c r="K4" s="2">
-        <v>0.95111111111111102</v>
-      </c>
-      <c r="L4" s="2">
         <v>0.81958762886597902</v>
       </c>
+      <c r="L4" s="3">
+        <v>0.16896480375693901</v>
+      </c>
       <c r="M4" s="2">
-        <v>0.16896480375693901</v>
-      </c>
-      <c r="N4" s="2">
         <v>0.38880949129455999</v>
       </c>
-      <c r="O4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="N4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>400</v>
       </c>
       <c r="D5">
         <v>400</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5">
+        <v>1E-4</v>
+      </c>
+      <c r="G5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5">
+        <v>0.3</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="J5" s="3">
+        <v>0.94444444444444398</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0.81958762886597902</v>
+      </c>
+      <c r="L5" s="3">
+        <v>0.17131553262472099</v>
+      </c>
+      <c r="M5" s="3">
+        <v>0.42373356783820099</v>
+      </c>
+      <c r="N5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>375</v>
+      </c>
+      <c r="D6">
+        <v>375</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6">
+        <v>1E-4</v>
+      </c>
+      <c r="G6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6">
+        <v>0.3</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+      <c r="J6" s="3">
+        <v>0.94666666666666599</v>
+      </c>
+      <c r="K6" s="3">
+        <v>0.79381443298969001</v>
+      </c>
+      <c r="L6" s="3">
+        <v>0.17502042757140199</v>
+      </c>
+      <c r="M6" s="3">
+        <v>0.43219805777687298</v>
+      </c>
+      <c r="N6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>375</v>
+      </c>
+      <c r="D7">
+        <v>375</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7">
+        <v>1E-4</v>
+      </c>
+      <c r="G7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7">
+        <v>0.3</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+      <c r="J7" s="3">
+        <v>0.93999999999999895</v>
+      </c>
+      <c r="K7" s="3">
+        <v>0.79381443298969001</v>
+      </c>
+      <c r="L7" s="3">
+        <v>0.18265497858325599</v>
+      </c>
+      <c r="M7" s="3">
+        <v>0.460891228975708</v>
+      </c>
+      <c r="N7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8">
         <v>400</v>
       </c>
-      <c r="F5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I5">
-        <v>0.3</v>
-      </c>
-      <c r="J5">
-        <v>2</v>
-      </c>
-      <c r="K5" s="4">
-        <v>0.93555555555555503</v>
-      </c>
-      <c r="L5" s="3">
+      <c r="D8">
+        <v>400</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8">
+        <v>1E-4</v>
+      </c>
+      <c r="G8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8">
+        <v>0.3</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
+      </c>
+      <c r="J8" s="4">
+        <v>0.93333333333333302</v>
+      </c>
+      <c r="K8" s="4">
+        <v>0.72164948453608202</v>
+      </c>
+      <c r="L8" s="3">
+        <v>0.19607893877559199</v>
+      </c>
+      <c r="M8" s="4">
+        <v>0.61775441045306301</v>
+      </c>
+      <c r="N8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>400</v>
+      </c>
+      <c r="D9">
+        <v>400</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9">
+        <v>1E-3</v>
+      </c>
+      <c r="G9" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9">
+        <v>0.3</v>
+      </c>
+      <c r="I9">
+        <v>2</v>
+      </c>
+      <c r="J9" s="3">
+        <v>0.93777777777777704</v>
+      </c>
+      <c r="K9" s="3">
         <v>0.78865979381443196</v>
       </c>
-      <c r="M5" s="4">
-        <v>0.18148957696225901</v>
-      </c>
-      <c r="N5" s="4">
-        <v>0.49094116595602499</v>
-      </c>
-      <c r="O5" t="s">
+      <c r="L9" s="4">
+        <v>0.220503233704302</v>
+      </c>
+      <c r="M9" s="3">
+        <v>0.51952869633270204</v>
+      </c>
+      <c r="N9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>400</v>
+      </c>
+      <c r="D10">
+        <v>400</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10">
+        <v>1E-4</v>
+      </c>
+      <c r="G10" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10">
+        <v>0.3</v>
+      </c>
+      <c r="I10">
+        <v>2</v>
+      </c>
+      <c r="J10" s="3">
+        <v>0.95111111111111102</v>
+      </c>
+      <c r="K10" s="3">
+        <v>0.78350515463917503</v>
+      </c>
+      <c r="L10" s="3">
+        <v>0.170665764179494</v>
+      </c>
+      <c r="M10" s="3">
+        <v>0.42416356534687499</v>
+      </c>
+      <c r="N10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>390</v>
+      </c>
+      <c r="D11">
+        <v>390</v>
+      </c>
+      <c r="E11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11">
+        <v>1E-4</v>
+      </c>
+      <c r="G11" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11">
+        <v>0.3</v>
+      </c>
+      <c r="I11">
+        <v>2</v>
+      </c>
+      <c r="J11" s="3">
+        <v>0.95111111111111102</v>
+      </c>
+      <c r="K11" s="3">
+        <v>0.79381443298969001</v>
+      </c>
+      <c r="L11" s="3">
+        <v>0.174319992967777</v>
+      </c>
+      <c r="M11" s="3">
+        <v>0.40591975017306697</v>
+      </c>
+      <c r="N11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>390</v>
+      </c>
+      <c r="D12">
+        <v>390</v>
+      </c>
+      <c r="E12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12">
+        <v>1E-3</v>
+      </c>
+      <c r="G12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H12">
+        <v>0.3</v>
+      </c>
+      <c r="I12">
+        <v>2</v>
+      </c>
+      <c r="J12" s="3">
+        <v>0.93333333333333302</v>
+      </c>
+      <c r="K12" s="4">
+        <v>0.72164948453608202</v>
+      </c>
+      <c r="L12" s="3">
+        <v>0.213368655426634</v>
+      </c>
+      <c r="M12" s="3">
+        <v>0.56528544617989596</v>
+      </c>
+      <c r="N12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>380</v>
+      </c>
+      <c r="D13">
+        <v>380</v>
+      </c>
+      <c r="E13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13">
+        <v>1E-4</v>
+      </c>
+      <c r="G13" t="s">
+        <v>5</v>
+      </c>
+      <c r="H13">
+        <v>0.3</v>
+      </c>
+      <c r="I13">
+        <v>2</v>
+      </c>
+      <c r="J13" s="2">
+        <v>0.95777777777777695</v>
+      </c>
+      <c r="K13" s="3">
+        <v>0.78865979381443196</v>
+      </c>
+      <c r="L13" s="2">
+        <v>0.160091730554898</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0.44699485454055399</v>
+      </c>
+      <c r="N13" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I6">
-        <v>0.3</v>
-      </c>
-      <c r="J6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I7">
-        <v>0.3</v>
-      </c>
-      <c r="J7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" t="s">
-        <v>6</v>
-      </c>
-      <c r="I8">
-        <v>0.3</v>
-      </c>
-      <c r="J8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" t="s">
-        <v>6</v>
-      </c>
-      <c r="I9">
-        <v>0.3</v>
-      </c>
-      <c r="J9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H10" t="s">
-        <v>6</v>
-      </c>
-      <c r="I10">
-        <v>0.3</v>
-      </c>
-      <c r="J10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H11" t="s">
-        <v>6</v>
-      </c>
-      <c r="I11">
-        <v>0.3</v>
-      </c>
-      <c r="J11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" t="s">
-        <v>14</v>
-      </c>
-      <c r="H12" t="s">
-        <v>6</v>
-      </c>
-      <c r="I12">
-        <v>0.3</v>
-      </c>
-      <c r="J12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F13" t="s">
-        <v>14</v>
-      </c>
-      <c r="H13" t="s">
-        <v>6</v>
-      </c>
-      <c r="I13">
-        <v>0.3</v>
-      </c>
-      <c r="J13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>365</v>
+      </c>
+      <c r="D14">
+        <v>365</v>
+      </c>
+      <c r="E14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14">
+        <v>1E-4</v>
+      </c>
+      <c r="G14" t="s">
+        <v>5</v>
+      </c>
+      <c r="H14">
+        <v>0.3</v>
+      </c>
+      <c r="I14">
+        <v>2</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0.95111111111111102</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0.76288659793814395</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0.18291301525301401</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0.49673140755633699</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F14" t="s">
-        <v>14</v>
-      </c>
-      <c r="H14" t="s">
-        <v>6</v>
-      </c>
-      <c r="I14">
-        <v>0.3</v>
-      </c>
-      <c r="J14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F15" t="s">
-        <v>14</v>
-      </c>
-      <c r="H15" t="s">
-        <v>6</v>
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>365</v>
+      </c>
+      <c r="D15">
+        <v>365</v>
+      </c>
+      <c r="E15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15">
+        <v>1E-4</v>
+      </c>
+      <c r="G15" t="s">
+        <v>5</v>
+      </c>
+      <c r="H15">
+        <v>0.3</v>
       </c>
       <c r="I15">
-        <v>0.3</v>
-      </c>
-      <c r="J15">
-        <v>2</v>
+        <v>2</v>
+      </c>
+      <c r="J15" s="2">
+        <v>0.95555555555555505</v>
+      </c>
+      <c r="K15" s="3">
+        <v>0.79896907216494795</v>
+      </c>
+      <c r="L15" s="3">
+        <v>0.16836446493863999</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0.417361243714376</v>
+      </c>
+      <c r="N15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16">
+        <v>4</v>
+      </c>
+      <c r="C16">
+        <v>370</v>
+      </c>
+      <c r="D16">
+        <v>370</v>
+      </c>
+      <c r="E16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16">
+        <v>1E-4</v>
+      </c>
+      <c r="G16" t="s">
+        <v>5</v>
+      </c>
+      <c r="H16">
+        <v>0.3</v>
+      </c>
+      <c r="I16">
+        <v>2</v>
+      </c>
+      <c r="J16" s="3">
+        <v>0.94222222222222196</v>
+      </c>
+      <c r="K16" s="3">
+        <v>0.79381443298969001</v>
+      </c>
+      <c r="L16" s="3">
+        <v>0.17738268011146099</v>
+      </c>
+      <c r="M16" s="3">
+        <v>0.45873944860758198</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17">
+        <v>363</v>
+      </c>
+      <c r="D17">
+        <v>363</v>
+      </c>
+      <c r="E17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17">
+        <v>1E-4</v>
+      </c>
+      <c r="G17" t="s">
+        <v>5</v>
+      </c>
+      <c r="H17">
+        <v>0.3</v>
+      </c>
+      <c r="I17">
+        <v>2</v>
+      </c>
+      <c r="J17">
+        <v>0.95111111111111102</v>
+      </c>
+      <c r="K17">
+        <v>0.82989690721649401</v>
+      </c>
+      <c r="L17">
+        <v>0.17249171372916899</v>
+      </c>
+      <c r="M17">
+        <v>0.40910802889115999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18">
+        <v>4</v>
+      </c>
+      <c r="C18">
+        <v>365</v>
+      </c>
+      <c r="D18">
+        <v>365</v>
+      </c>
+      <c r="E18" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18">
+        <v>1E-4</v>
+      </c>
+      <c r="G18" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18">
+        <v>0.3</v>
+      </c>
+      <c r="I18">
+        <v>2</v>
+      </c>
+      <c r="J18">
+        <v>0.95333333333333303</v>
+      </c>
+      <c r="K18">
+        <v>0.79381443298969001</v>
+      </c>
+      <c r="L18">
+        <v>0.162649574575738</v>
+      </c>
+      <c r="M18">
+        <v>0.52941324423576097</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A19" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="2">
+        <v>4</v>
+      </c>
+      <c r="C19" s="2">
+        <v>364</v>
+      </c>
+      <c r="D19" s="2">
+        <v>364</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H19" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="I19" s="2">
+        <v>2</v>
+      </c>
+      <c r="J19" s="2">
+        <v>0.948888888888888</v>
+      </c>
+      <c r="K19" s="2">
+        <v>0.84020618556700999</v>
+      </c>
+      <c r="L19" s="2">
+        <v>0.165990329119894</v>
+      </c>
+      <c r="M19" s="2">
+        <v>0.39030665850516399</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
